--- a/数据整理/stocks/其他/BIIB-百健.xlsx
+++ b/数据整理/stocks/其他/BIIB-百健.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BIIB-百健.xlsx
+++ b/数据整理/stocks/其他/BIIB-百健.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BIIB-百健.xlsx
+++ b/数据整理/stocks/其他/BIIB-百健.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BIIB-百健.xlsx
+++ b/数据整理/stocks/其他/BIIB-百健.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1368,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1384,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/BIIB-百健.xlsx
+++ b/数据整理/stocks/其他/BIIB-百健.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1368,14 +1501,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -1384,14 +1517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -1400,13 +1533,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/BIIB-百健.xlsx
+++ b/数据整理/stocks/其他/BIIB-百健.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1634,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1517,14 +1650,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -1533,14 +1666,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -1549,13 +1682,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/BIIB-百健.xlsx
+++ b/数据整理/stocks/其他/BIIB-百健.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001092</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001093</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -650,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0303</t>
+          <t>0.0439</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -688,178 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0303</t>
+          <t>0.0439</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161127</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达标普生物科技指数（QDII-LOF）人民币</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003720</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达标普生物科技指数（QDII-LOF）美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161126</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003719</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,7 +758,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -934,26 +798,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0385</t>
+          <t>0.0314</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -972,64 +836,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0385</t>
+          <t>0.0314</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519981</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.92</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +890,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1104,26 +930,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0338</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1142,26 +968,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0338</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +1022,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1236,26 +1062,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.83</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.0314</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1274,26 +1100,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.83</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.0314</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1307,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1328,7 +1154,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1368,26 +1194,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>85.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0385</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1406,26 +1232,64 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>85.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0385</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1439,7 +1303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1460,7 +1324,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1500,26 +1364,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>84.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0439</t>
+          <t>0.0303</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1538,26 +1402,178 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>84.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0439</t>
+          <t>0.0303</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161127</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普生物科技指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普生物科技指数（QDII-LOF）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1571,144 +1587,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.05</v>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/BIIB-百健.xlsx
+++ b/数据整理/stocks/其他/BIIB-百健.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+          <t>广发纳斯达克生物科技指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0439</t>
+          <t>0.1839</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -699,31 +716,483 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+          <t>广发纳斯达克生物科技指数（QDII）美元A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0439</t>
+          <t>0.1839</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161127</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普生物科技指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012866</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普生物科技指数（QDII-LOF）人民币 C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普生物科技指数（QDII-LOF）美元A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数（QDII-LOF）人民币 C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数（QDII-LOF）美元A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>096001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013404</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012865</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数（QDII-LOF）美元 C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012867</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达标普生物科技指数（QDII-LOF）美元 C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016470</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016471</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -798,22 +1267,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0439</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -836,22 +1305,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0439</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -930,26 +1399,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.83</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.0314</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -968,26 +1437,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.83</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.0314</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1491,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1062,26 +1531,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0338</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1100,26 +1569,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0338</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1128,6 +1597,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1297,7 +1898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1581,7 +2182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/BIIB-百健.xlsx
+++ b/数据整理/stocks/其他/BIIB-百健.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -616,7 +633,381 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富纳斯达克生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016470</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数人民币C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016471</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数美元C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1193,138 +1584,6 @@
       </c>
       <c r="H15" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001092</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0439</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001093</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0439</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1399,22 +1658,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0439</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1437,22 +1696,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0439</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1531,26 +1790,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.83</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.0314</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1569,26 +1828,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.83</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.0314</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1623,7 +1882,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1663,26 +1922,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0338</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1701,26 +1960,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0338</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1729,6 +1988,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1898,7 +2289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2180,136 +2571,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001092</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001093</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>